--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_250__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_250__Reeval_Sobol_Modell_1.3.xlsx
@@ -6118,7 +6118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>78.87612915039062</c:v>
+                  <c:v>78.87613677978516</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>58.88121795654297</c:v>
@@ -6127,34 +6127,34 @@
                   <c:v>75.54204559326172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.26760864257812</c:v>
+                  <c:v>81.26761627197266</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>49.70783233642578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.43510437011719</c:v>
+                  <c:v>62.43511581420898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.89518356323242</c:v>
+                  <c:v>46.89518737792969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.82078552246094</c:v>
+                  <c:v>91.82079315185547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76.77635955810547</c:v>
+                  <c:v>76.7763671875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.45011901855469</c:v>
+                  <c:v>82.45012664794922</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>72.54862976074219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.73518371582031</c:v>
+                  <c:v>77.73519134521484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95.06262969970703</c:v>
+                  <c:v>95.06263732910156</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19.87311553955078</c:v>
@@ -6166,22 +6166,22 @@
                   <c:v>78.18843078613281</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>77.44345092773438</c:v>
+                  <c:v>77.44345855712891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.17750930786133</c:v>
+                  <c:v>51.17751312255859</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81.99430847167969</c:v>
+                  <c:v>81.99431610107422</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>77.77097320556641</c:v>
+                  <c:v>77.77098083496094</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49.75703430175781</c:v>
+                  <c:v>49.75703811645508</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.03959655761719</c:v>
+                  <c:v>25.03959465026855</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>54.89285278320312</c:v>
@@ -6193,13 +6193,13 @@
                   <c:v>80.98334503173828</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65.37416839599609</c:v>
+                  <c:v>65.37417602539062</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.97431182861328</c:v>
+                  <c:v>79.97431945800781</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.64241027832031</c:v>
+                  <c:v>76.64241790771484</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>81.53915405273438</c:v>
@@ -6208,25 +6208,25 @@
                   <c:v>76.93234252929688</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>75.35457611083984</c:v>
+                  <c:v>75.35458374023438</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>89.66082763671875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>80.17650604248047</c:v>
+                  <c:v>80.176513671875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>79.75053405761719</c:v>
+                  <c:v>79.75054168701172</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>78.50075531005859</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.31748199462891</c:v>
+                  <c:v>69.31748962402344</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>77.37870025634766</c:v>
+                  <c:v>77.37870788574219</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76.38643646240234</c:v>
@@ -6244,13 +6244,13 @@
                   <c:v>88.70882415771484</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>79.19684600830078</c:v>
+                  <c:v>79.19685363769531</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>53.52477645874023</c:v>
+                  <c:v>53.5247802734375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>80.48176574707031</c:v>
+                  <c:v>80.48177337646484</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>75.30904388427734</c:v>
@@ -6259,7 +6259,7 @@
                   <c:v>108.983283996582</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.79882431030273</c:v>
+                  <c:v>47.798828125</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>80.45824432373047</c:v>
@@ -6271,7 +6271,7 @@
                   <c:v>69.14394378662109</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>90.35543823242188</c:v>
+                  <c:v>90.35544586181641</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>86.99983215332031</c:v>
@@ -6286,22 +6286,22 @@
                   <c:v>69.85337829589844</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>49.58732223510742</c:v>
+                  <c:v>49.58732604980469</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>60.91448974609375</c:v>
+                  <c:v>60.91449737548828</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>77.37906646728516</c:v>
+                  <c:v>77.37907409667969</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>54.72103881835938</c:v>
+                  <c:v>54.72104263305664</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>95.51474761962891</c:v>
+                  <c:v>95.51475524902344</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>79.81121063232422</c:v>
+                  <c:v>79.81121826171875</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>85.31905364990234</c:v>
@@ -6316,10 +6316,10 @@
                   <c:v>77.89774322509766</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>88.57399749755859</c:v>
+                  <c:v>88.57400512695312</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>84.43566131591797</c:v>
+                  <c:v>84.4356689453125</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>81.13899230957031</c:v>
@@ -6328,7 +6328,7 @@
                   <c:v>83.91797637939453</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>58.32978439331055</c:v>
+                  <c:v>58.32979202270508</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>82.52215576171875</c:v>
@@ -6340,19 +6340,19 @@
                   <c:v>87.11822509765625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>79.05294799804688</c:v>
+                  <c:v>79.05295562744141</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>92.22652435302734</c:v>
+                  <c:v>92.22653198242188</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>24.22336769104004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50.52827835083008</c:v>
+                  <c:v>50.52828216552734</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>44.86907958984375</c:v>
+                  <c:v>44.86908721923828</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>55.88695526123047</c:v>
@@ -6361,16 +6361,16 @@
                   <c:v>63.43865203857422</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>79.66675567626953</c:v>
+                  <c:v>79.66676330566406</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83.85500335693359</c:v>
+                  <c:v>83.85501861572266</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>69.24533843994141</c:v>
+                  <c:v>69.24534606933594</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.17531299591064</c:v>
+                  <c:v>15.17531108856201</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>28.47011947631836</c:v>
@@ -6382,7 +6382,7 @@
                   <c:v>87.29453277587891</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>96.1683349609375</c:v>
+                  <c:v>96.16834259033203</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>60.92098999023438</c:v>
@@ -6406,19 +6406,19 @@
                   <c:v>80.42369842529297</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>90.36971282958984</c:v>
+                  <c:v>90.36972808837891</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>27.10376358032227</c:v>
+                  <c:v>27.10376167297363</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>81.26644897460938</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>76.23193359375</c:v>
+                  <c:v>76.23194122314453</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>80.82440948486328</c:v>
+                  <c:v>80.82441711425781</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>71.44192504882812</c:v>
@@ -7119,7 +7119,7 @@
         <v>83.8301</v>
       </c>
       <c r="F2">
-        <v>78.87612915039062</v>
+        <v>78.87613677978516</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7215,7 +7215,7 @@
         <v>88.4752</v>
       </c>
       <c r="F5">
-        <v>81.26760864257812</v>
+        <v>81.26761627197266</v>
       </c>
       <c r="G5">
         <v>109</v>
@@ -7279,7 +7279,7 @@
         <v>68.6634</v>
       </c>
       <c r="F7">
-        <v>62.43510437011719</v>
+        <v>62.43511581420898</v>
       </c>
       <c r="G7">
         <v>109</v>
@@ -7311,7 +7311,7 @@
         <v>49.0368</v>
       </c>
       <c r="F8">
-        <v>46.89518356323242</v>
+        <v>46.89518737792969</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>95.0206</v>
       </c>
       <c r="F9">
-        <v>91.82078552246094</v>
+        <v>91.82079315185547</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>75.5044</v>
       </c>
       <c r="F10">
-        <v>76.77635955810547</v>
+        <v>76.7763671875</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>83.4324</v>
       </c>
       <c r="F11">
-        <v>82.45011901855469</v>
+        <v>82.45012664794922</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>74.6092</v>
       </c>
       <c r="F13">
-        <v>77.73518371582031</v>
+        <v>77.73519134521484</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>84.10420000000001</v>
       </c>
       <c r="F14">
-        <v>95.06262969970703</v>
+        <v>95.06263732910156</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7511,7 +7511,7 @@
         <v>78.5603</v>
       </c>
       <c r="F18">
-        <v>77.44345092773438</v>
+        <v>77.44345855712891</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>51.17750930786133</v>
+        <v>51.17751312255859</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>81.3948</v>
       </c>
       <c r="F20">
-        <v>81.99430847167969</v>
+        <v>81.99431610107422</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>76.9473</v>
       </c>
       <c r="F21">
-        <v>77.77097320556641</v>
+        <v>77.77098083496094</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>54.2093</v>
       </c>
       <c r="F22">
-        <v>49.75703430175781</v>
+        <v>49.75703811645508</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>25.03959655761719</v>
+        <v>25.03959465026855</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>63.4677</v>
       </c>
       <c r="F27">
-        <v>65.37416839599609</v>
+        <v>65.37417602539062</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>62.4651</v>
       </c>
       <c r="F28">
-        <v>79.97431182861328</v>
+        <v>79.97431945800781</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>82.548</v>
       </c>
       <c r="F29">
-        <v>76.64241027832031</v>
+        <v>76.64241790771484</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>76.2226</v>
       </c>
       <c r="F32">
-        <v>75.35457611083984</v>
+        <v>75.35458374023438</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>80.1123</v>
       </c>
       <c r="F34">
-        <v>80.17650604248047</v>
+        <v>80.176513671875</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F35">
-        <v>79.75053405761719</v>
+        <v>79.75054168701172</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>69.36790000000001</v>
       </c>
       <c r="F37">
-        <v>69.31748199462891</v>
+        <v>69.31748962402344</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>83.1935</v>
       </c>
       <c r="F38">
-        <v>77.37870025634766</v>
+        <v>77.37870788574219</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>79.19684600830078</v>
+        <v>79.19685363769531</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>39.188</v>
       </c>
       <c r="F45">
-        <v>53.52477645874023</v>
+        <v>53.5247802734375</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>72.2573</v>
       </c>
       <c r="F46">
-        <v>80.48176574707031</v>
+        <v>80.48177337646484</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>54.0966</v>
       </c>
       <c r="F49">
-        <v>47.79882431030273</v>
+        <v>47.798828125</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>96.6493</v>
       </c>
       <c r="F53">
-        <v>90.35543823242188</v>
+        <v>90.35544586181641</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>49.58732223510742</v>
+        <v>49.58732604980469</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>74.66889999999999</v>
       </c>
       <c r="F59">
-        <v>60.91448974609375</v>
+        <v>60.91449737548828</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>76.94629999999999</v>
       </c>
       <c r="F60">
-        <v>77.37906646728516</v>
+        <v>77.37907409667969</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>87.4046</v>
       </c>
       <c r="F61">
-        <v>54.72103881835938</v>
+        <v>54.72104263305664</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>90.9457</v>
       </c>
       <c r="F62">
-        <v>95.51474761962891</v>
+        <v>95.51475524902344</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>80.29730000000001</v>
       </c>
       <c r="F63">
-        <v>79.81121063232422</v>
+        <v>79.81121826171875</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>88.57399749755859</v>
+        <v>88.57400512695312</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>91.7517</v>
       </c>
       <c r="F69">
-        <v>84.43566131591797</v>
+        <v>84.4356689453125</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>61.5791</v>
       </c>
       <c r="F72">
-        <v>58.32978439331055</v>
+        <v>58.32979202270508</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>71.3847</v>
       </c>
       <c r="F76">
-        <v>79.05294799804688</v>
+        <v>79.05295562744141</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>93.0134</v>
       </c>
       <c r="F77">
-        <v>92.22652435302734</v>
+        <v>92.22653198242188</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>50.52827835083008</v>
+        <v>50.52828216552734</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.8515</v>
       </c>
       <c r="F80">
-        <v>44.86907958984375</v>
+        <v>44.86908721923828</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>79.66675567626953</v>
+        <v>79.66676330566406</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>85.5154</v>
       </c>
       <c r="F84">
-        <v>83.85500335693359</v>
+        <v>83.85501861572266</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>78.6379</v>
       </c>
       <c r="F85">
-        <v>69.24533843994141</v>
+        <v>69.24534606933594</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>15.17531299591064</v>
+        <v>15.17531108856201</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>89.8989</v>
       </c>
       <c r="F90">
-        <v>96.1683349609375</v>
+        <v>96.16834259033203</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>84.7602</v>
       </c>
       <c r="F98">
-        <v>90.36971282958984</v>
+        <v>90.36972808837891</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>27.10376358032227</v>
+        <v>27.10376167297363</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>84.7376</v>
       </c>
       <c r="F101">
-        <v>76.23193359375</v>
+        <v>76.23194122314453</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>80.7841</v>
       </c>
       <c r="F102">
-        <v>80.82440948486328</v>
+        <v>80.82441711425781</v>
       </c>
     </row>
     <row r="103" spans="1:6">
